--- a/biology/Zoologie/Bolitoglossa_epimela/Bolitoglossa_epimela.xlsx
+++ b/biology/Zoologie/Bolitoglossa_epimela/Bolitoglossa_epimela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolitoglossa epimela est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolitoglossa epimela est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Cartago au Costa Rica. Elle est présente entre 775 et 1 550 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Cartago au Costa Rica. Elle est présente entre 775 et 1 550 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolitoglossa epimela mesure de 76 à 97 mm dont plus de moitié pour la queue[2]. Son dos est brun foncé ou noir avec quelques taches fauve, orange, roses ou blanches. Son ventre est noir pratiquement uniforme si ce n'est quelques taches violacées à rosâtres.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolitoglossa epimela mesure de 76 à 97 mm dont plus de moitié pour la queue. Son dos est brun foncé ou noir avec quelques taches fauve, orange, roses ou blanches. Son ventre est noir pratiquement uniforme si ce n'est quelques taches violacées à rosâtres.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wake &amp; Brame, 1963 : A new species of Costa Rican salamander, genus Bolitoglossa. Revista de Biología Tropical, vol. 11, p. 63-73.</t>
         </is>
